--- a/input/invertCells.xlsx
+++ b/input/invertCells.xlsx
@@ -6,10 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="288" yWindow="96" windowWidth="9540" windowHeight="4512" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="inverted" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="inverted1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="inverted" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -435,6 +436,116 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="n">
+        <v>42099.56530092594</v>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Apples</t>
+        </is>
+      </c>
+      <c r="C1" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n">
+        <v>42099.15373842593</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Cherries</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="n">
+        <v>42100.53253472222</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Pears</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="n">
+        <v>42102.37480324074</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Oranges</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="n">
+        <v>42104.08819444444</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Apples</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="n">
+        <v>42104.75737268518</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bananas</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="n">
+        <v>42104.11164351852</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Strawberries</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -445,7 +556,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="n">
-        <v>42099.56530092593</v>
+        <v>42099.56530092594</v>
       </c>
       <c r="B1" s="4" t="n">
         <v>42099.15373842593</v>
@@ -531,7 +642,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -550,7 +661,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="n">
-        <v>42099.56530092593</v>
+        <v>42099.56530092594</v>
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
@@ -642,24 +753,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -679,4 +772,22 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/input/invertCells.xlsx
+++ b/input/invertCells.xlsx
@@ -6,11 +6,16 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="288" yWindow="96" windowWidth="9540" windowHeight="4512" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="inverted1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="inverted" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="inverted6" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="inverted5" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="inverted4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="inverted3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="inverted2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="inverted1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="inverted" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -436,6 +441,126 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="n">
+        <v>42099.56530092593</v>
+      </c>
+      <c r="B1" s="4" t="n">
+        <v>42099.15373842593</v>
+      </c>
+      <c r="C1" s="4" t="n">
+        <v>42100.53253472222</v>
+      </c>
+      <c r="D1" s="4" t="n">
+        <v>42102.37480324074</v>
+      </c>
+      <c r="E1" s="4" t="n">
+        <v>42104.08819444444</v>
+      </c>
+      <c r="F1" s="4" t="n">
+        <v>42104.75737268518</v>
+      </c>
+      <c r="G1" s="4" t="n">
+        <v>42104.11164351852</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Apples</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Cherries</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Pears</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Oranges</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Apples</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Bananas</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Strawberries</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>73</v>
+      </c>
+      <c r="B3" t="n">
+        <v>85</v>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>52</v>
+      </c>
+      <c r="E3" t="n">
+        <v>152</v>
+      </c>
+      <c r="F3" t="n">
+        <v>23</v>
+      </c>
+      <c r="G3" t="n">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -446,7 +571,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="n">
-        <v>42099.56530092594</v>
+        <v>42099.56530092593</v>
       </c>
       <c r="B1" t="inlineStr">
         <is>
@@ -540,7 +665,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -556,7 +681,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="n">
-        <v>42099.56530092594</v>
+        <v>42099.56530092593</v>
       </c>
       <c r="B1" s="4" t="n">
         <v>42099.15373842593</v>
@@ -642,7 +767,431 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="n">
+        <v>42099.56530092593</v>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Apples</t>
+        </is>
+      </c>
+      <c r="C1" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n">
+        <v>42099.15373842593</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Cherries</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="n">
+        <v>42100.53253472222</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Pears</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="n">
+        <v>42102.37480324074</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Oranges</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="n">
+        <v>42104.08819444444</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Apples</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="n">
+        <v>42104.75737268518</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bananas</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="n">
+        <v>42104.11164351852</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Strawberries</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="n">
+        <v>42099.56530092593</v>
+      </c>
+      <c r="B1" s="4" t="n">
+        <v>42099.15373842593</v>
+      </c>
+      <c r="C1" s="4" t="n">
+        <v>42100.53253472222</v>
+      </c>
+      <c r="D1" s="4" t="n">
+        <v>42102.37480324074</v>
+      </c>
+      <c r="E1" s="4" t="n">
+        <v>42104.08819444444</v>
+      </c>
+      <c r="F1" s="4" t="n">
+        <v>42104.75737268518</v>
+      </c>
+      <c r="G1" s="4" t="n">
+        <v>42104.11164351852</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Apples</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Cherries</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Pears</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Oranges</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Apples</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Bananas</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Strawberries</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>73</v>
+      </c>
+      <c r="B3" t="n">
+        <v>85</v>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>52</v>
+      </c>
+      <c r="E3" t="n">
+        <v>152</v>
+      </c>
+      <c r="F3" t="n">
+        <v>23</v>
+      </c>
+      <c r="G3" t="n">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="n">
+        <v>42099.56530092593</v>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Apples</t>
+        </is>
+      </c>
+      <c r="C1" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n">
+        <v>42099.15373842593</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Cherries</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="n">
+        <v>42100.53253472222</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Pears</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="n">
+        <v>42102.37480324074</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Oranges</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="n">
+        <v>42104.08819444444</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Apples</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="n">
+        <v>42104.75737268518</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bananas</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="n">
+        <v>42104.11164351852</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Strawberries</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="n">
+        <v>42099.56530092593</v>
+      </c>
+      <c r="B1" s="4" t="n">
+        <v>42099.15373842593</v>
+      </c>
+      <c r="C1" s="4" t="n">
+        <v>42100.53253472222</v>
+      </c>
+      <c r="D1" s="4" t="n">
+        <v>42102.37480324074</v>
+      </c>
+      <c r="E1" s="4" t="n">
+        <v>42104.08819444444</v>
+      </c>
+      <c r="F1" s="4" t="n">
+        <v>42104.75737268518</v>
+      </c>
+      <c r="G1" s="4" t="n">
+        <v>42104.11164351852</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Apples</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Cherries</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Pears</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Oranges</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Apples</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Bananas</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Strawberries</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>73</v>
+      </c>
+      <c r="B3" t="n">
+        <v>85</v>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>52</v>
+      </c>
+      <c r="E3" t="n">
+        <v>152</v>
+      </c>
+      <c r="F3" t="n">
+        <v>23</v>
+      </c>
+      <c r="G3" t="n">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -661,7 +1210,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="n">
-        <v>42099.56530092594</v>
+        <v>42099.56530092593</v>
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
@@ -756,25 +1305,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/input/invertCells.xlsx
+++ b/input/invertCells.xlsx
@@ -6,16 +6,17 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="288" yWindow="96" windowWidth="9540" windowHeight="4512" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="inverted6" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="inverted5" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="inverted4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="inverted3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="inverted2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="inverted1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="inverted" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="inverted7" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="inverted6" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="inverted5" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="inverted4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="inverted3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="inverted2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="inverted1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="inverted" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -441,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,82 +454,90 @@
       <c r="A1" s="4" t="n">
         <v>42099.56530092593</v>
       </c>
-      <c r="B1" s="4" t="n">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Apples</t>
+        </is>
+      </c>
+      <c r="C1" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n">
         <v>42099.15373842593</v>
       </c>
-      <c r="C1" s="4" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Cherries</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="n">
         <v>42100.53253472222</v>
       </c>
-      <c r="D1" s="4" t="n">
-        <v>42102.37480324074</v>
-      </c>
-      <c r="E1" s="4" t="n">
-        <v>42104.08819444444</v>
-      </c>
-      <c r="F1" s="4" t="n">
-        <v>42104.75737268518</v>
-      </c>
-      <c r="G1" s="4" t="n">
-        <v>42104.11164351852</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Apples</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Cherries</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>Pears</t>
         </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Oranges</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Apples</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Bananas</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Strawberries</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>73</v>
-      </c>
-      <c r="B3" t="n">
-        <v>85</v>
       </c>
       <c r="C3" t="n">
         <v>14</v>
       </c>
-      <c r="D3" t="n">
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="n">
+        <v>42102.37480324074</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Oranges</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>52</v>
       </c>
-      <c r="E3" t="n">
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="n">
+        <v>42104.08819444444</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Apples</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>152</v>
       </c>
-      <c r="F3" t="n">
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="n">
+        <v>42104.75737268518</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bananas</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>23</v>
       </c>
-      <c r="G3" t="n">
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="n">
+        <v>42104.11164351852</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Strawberries</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>98</v>
       </c>
     </row>
@@ -555,7 +564,127 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="n">
+        <v>42099.56530092593</v>
+      </c>
+      <c r="B1" s="4" t="n">
+        <v>42099.15373842593</v>
+      </c>
+      <c r="C1" s="4" t="n">
+        <v>42100.53253472222</v>
+      </c>
+      <c r="D1" s="4" t="n">
+        <v>42102.37480324074</v>
+      </c>
+      <c r="E1" s="4" t="n">
+        <v>42104.08819444444</v>
+      </c>
+      <c r="F1" s="4" t="n">
+        <v>42104.75737268518</v>
+      </c>
+      <c r="G1" s="4" t="n">
+        <v>42104.11164351852</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Apples</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Cherries</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Pears</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Oranges</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Apples</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Bananas</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Strawberries</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>73</v>
+      </c>
+      <c r="B3" t="n">
+        <v>85</v>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>52</v>
+      </c>
+      <c r="E3" t="n">
+        <v>152</v>
+      </c>
+      <c r="F3" t="n">
+        <v>23</v>
+      </c>
+      <c r="G3" t="n">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -665,7 +794,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -767,7 +896,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -877,7 +1006,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -979,7 +1108,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1089,7 +1218,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1191,7 +1320,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1303,22 +1432,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>